--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3477304.5557419</v>
+        <v>3476675.599540468</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1149835.836491632</v>
+        <v>1149835.836491633</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6617840.996528445</v>
+        <v>6617840.996528446</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>132.412529479546</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>131.4598642989931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>151.6225355493838</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4719947783323573</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>206.6725790184791</v>
+        <v>25.33675171363424</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>226.3816667732198</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>44.92784848665472</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -1201,7 +1201,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>342.2597165550158</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>15.12550965999393</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>86.3307451721066</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>15.42428558140403</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>26.30187510234873</v>
       </c>
     </row>
     <row r="12">
@@ -1539,7 +1539,7 @@
         <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484021</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
         <v>72.58023888723245</v>
@@ -1548,7 +1548,7 @@
         <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>39.32284758254333</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1669,10 +1669,10 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419573</v>
+        <v>133.1537684282043</v>
       </c>
       <c r="Y14" t="n">
         <v>298.5345275142884</v>
@@ -1846,16 +1846,16 @@
         <v>283.6033183649455</v>
       </c>
       <c r="C17" t="n">
-        <v>276.3572665927613</v>
+        <v>276.3572665927612</v>
       </c>
       <c r="D17" t="n">
         <v>268.7002376061615</v>
       </c>
       <c r="E17" t="n">
-        <v>285.6712097452835</v>
+        <v>163.8775907319888</v>
       </c>
       <c r="F17" t="n">
-        <v>299.8390141959846</v>
+        <v>299.8390141959845</v>
       </c>
       <c r="G17" t="n">
         <v>296.1446480675394</v>
@@ -1864,7 +1864,7 @@
         <v>207.9557400398368</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>24.06726584912238</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.72612538861986</v>
+        <v>51.9619396190225</v>
       </c>
       <c r="T17" t="n">
         <v>108.3791165268401</v>
       </c>
       <c r="U17" t="n">
-        <v>140.30872238041</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>225.7992613141793</v>
       </c>
       <c r="W17" t="n">
         <v>254.402564792058</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70.46945861505084</v>
+        <v>70.46945861505083</v>
       </c>
       <c r="C19" t="n">
-        <v>55.61658686533325</v>
+        <v>55.61658686533323</v>
       </c>
       <c r="D19" t="n">
-        <v>41.19030207717297</v>
+        <v>41.19030207717296</v>
       </c>
       <c r="E19" t="n">
-        <v>41.11674413005208</v>
+        <v>41.11674413005207</v>
       </c>
       <c r="F19" t="n">
-        <v>42.86619554981935</v>
+        <v>42.86619554981934</v>
       </c>
       <c r="G19" t="n">
-        <v>53.68503347221149</v>
+        <v>53.68503347221147</v>
       </c>
       <c r="H19" t="n">
-        <v>41.03728563878353</v>
+        <v>41.03728563878352</v>
       </c>
       <c r="I19" t="n">
-        <v>18.87700121995546</v>
+        <v>18.87700121995545</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.775499584411378</v>
+        <v>9.775499584411364</v>
       </c>
       <c r="S19" t="n">
-        <v>87.9014430899387</v>
+        <v>87.90144308993868</v>
       </c>
       <c r="T19" t="n">
         <v>120.4753814241108</v>
       </c>
       <c r="U19" t="n">
-        <v>169.6979239511807</v>
+        <v>169.6979239511806</v>
       </c>
       <c r="V19" t="n">
         <v>150.4330718380466</v>
@@ -2083,16 +2083,16 @@
         <v>283.6033183649455</v>
       </c>
       <c r="C20" t="n">
-        <v>276.3572665927613</v>
+        <v>276.3572665927612</v>
       </c>
       <c r="D20" t="n">
         <v>268.7002376061615</v>
       </c>
       <c r="E20" t="n">
-        <v>23.56886835157862</v>
+        <v>285.6712097452835</v>
       </c>
       <c r="F20" t="n">
-        <v>299.8390141959846</v>
+        <v>299.8390141959845</v>
       </c>
       <c r="G20" t="n">
         <v>296.1446480675394</v>
@@ -2101,7 +2101,7 @@
         <v>207.9557400398368</v>
       </c>
       <c r="I20" t="n">
-        <v>24.06726584912239</v>
+        <v>24.06726584912238</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>51.96193961902252</v>
+        <v>51.9619396190225</v>
       </c>
       <c r="T20" t="n">
-        <v>108.3791165268401</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>140.30872238041</v>
+        <v>140.3087223804099</v>
       </c>
       <c r="V20" t="n">
-        <v>225.7992613141794</v>
+        <v>72.07603644731486</v>
       </c>
       <c r="W20" t="n">
         <v>254.402564792058</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.46945861505084</v>
+        <v>70.46945861505083</v>
       </c>
       <c r="C22" t="n">
-        <v>55.61658686533325</v>
+        <v>55.61658686533323</v>
       </c>
       <c r="D22" t="n">
-        <v>41.19030207717297</v>
+        <v>41.19030207717296</v>
       </c>
       <c r="E22" t="n">
-        <v>41.11674413005208</v>
+        <v>41.11674413005207</v>
       </c>
       <c r="F22" t="n">
-        <v>42.86619554981935</v>
+        <v>42.86619554981934</v>
       </c>
       <c r="G22" t="n">
-        <v>53.68503347221149</v>
+        <v>53.68503347221147</v>
       </c>
       <c r="H22" t="n">
-        <v>41.03728563878353</v>
+        <v>41.03728563878352</v>
       </c>
       <c r="I22" t="n">
-        <v>18.87700121995546</v>
+        <v>18.87700121995545</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.775499584411378</v>
+        <v>9.775499584411364</v>
       </c>
       <c r="S22" t="n">
-        <v>87.9014430899387</v>
+        <v>87.90144308993868</v>
       </c>
       <c r="T22" t="n">
         <v>120.4753814241108</v>
       </c>
       <c r="U22" t="n">
-        <v>169.6979239511807</v>
+        <v>169.6979239511806</v>
       </c>
       <c r="V22" t="n">
         <v>150.4330718380466</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21.50097697124039</v>
+        <v>283.6033183649455</v>
       </c>
       <c r="C23" t="n">
-        <v>276.3572665927613</v>
+        <v>276.3572665927612</v>
       </c>
       <c r="D23" t="n">
         <v>268.7002376061615</v>
@@ -2329,7 +2329,7 @@
         <v>285.6712097452835</v>
       </c>
       <c r="F23" t="n">
-        <v>299.8390141959846</v>
+        <v>299.8390141959845</v>
       </c>
       <c r="G23" t="n">
         <v>296.1446480675394</v>
@@ -2338,7 +2338,7 @@
         <v>207.9557400398368</v>
       </c>
       <c r="I23" t="n">
-        <v>24.06726584912239</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.96193961902252</v>
+        <v>51.9619396190225</v>
       </c>
       <c r="T23" t="n">
         <v>108.3791165268401</v>
       </c>
       <c r="U23" t="n">
-        <v>140.30872238041</v>
+        <v>140.3087223804099</v>
       </c>
       <c r="V23" t="n">
-        <v>225.7992613141794</v>
+        <v>225.7992613141793</v>
       </c>
       <c r="W23" t="n">
         <v>254.402564792058</v>
@@ -2386,7 +2386,7 @@
         <v>272.6715991269363</v>
       </c>
       <c r="Y23" t="n">
-        <v>279.6393220992675</v>
+        <v>41.6042465546854</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.46945861505084</v>
+        <v>70.46945861505083</v>
       </c>
       <c r="C25" t="n">
-        <v>55.61658686533325</v>
+        <v>55.61658686533323</v>
       </c>
       <c r="D25" t="n">
-        <v>41.19030207717297</v>
+        <v>41.19030207717296</v>
       </c>
       <c r="E25" t="n">
-        <v>41.11674413005208</v>
+        <v>41.11674413005207</v>
       </c>
       <c r="F25" t="n">
-        <v>42.86619554981935</v>
+        <v>42.86619554981934</v>
       </c>
       <c r="G25" t="n">
-        <v>53.68503347221149</v>
+        <v>53.68503347221147</v>
       </c>
       <c r="H25" t="n">
-        <v>41.03728563878353</v>
+        <v>41.03728563878352</v>
       </c>
       <c r="I25" t="n">
-        <v>18.87700121995546</v>
+        <v>18.87700121995545</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.775499584411378</v>
+        <v>9.775499584411364</v>
       </c>
       <c r="S25" t="n">
-        <v>87.9014430899387</v>
+        <v>87.90144308993868</v>
       </c>
       <c r="T25" t="n">
         <v>120.4753814241108</v>
       </c>
       <c r="U25" t="n">
-        <v>169.6979239511807</v>
+        <v>169.6979239511806</v>
       </c>
       <c r="V25" t="n">
         <v>150.4330718380466</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>82.73558215520852</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2617,13 +2617,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>42.80720107062131</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484006</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2772,13 +2772,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2794,7 +2794,7 @@
         <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
@@ -2806,7 +2806,7 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
-        <v>287.2274416863593</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
         <v>226.8509454548578</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>37.37898738210719</v>
       </c>
       <c r="W29" t="n">
         <v>273.297770207079</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
@@ -3328,7 +3328,7 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658112</v>
       </c>
       <c r="X35" t="n">
         <v>255.1981097006893</v>
@@ -3508,7 +3508,7 @@
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3565,7 +3565,7 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658112</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
         <v>255.1981097006893</v>
@@ -3745,19 +3745,19 @@
         <v>333.9798462258098</v>
       </c>
       <c r="D41" t="n">
-        <v>326.32281723921</v>
+        <v>70.61323649375576</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>343.293789378332</v>
       </c>
       <c r="F41" t="n">
-        <v>317.2872417662211</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>353.7672277005879</v>
       </c>
       <c r="H41" t="n">
-        <v>265.5783196728853</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.584519252071</v>
       </c>
       <c r="T41" t="n">
-        <v>166.0016961598886</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>197.9313020134585</v>
       </c>
       <c r="V41" t="n">
-        <v>283.4218409472278</v>
+        <v>283.4218409472279</v>
       </c>
       <c r="W41" t="n">
         <v>312.0251444251065</v>
@@ -3808,7 +3808,7 @@
         <v>330.2941787599848</v>
       </c>
       <c r="Y41" t="n">
-        <v>337.2619017323159</v>
+        <v>337.261901732316</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>98.81288171022148</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>98.73932376310059</v>
+        <v>98.7393237631006</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>111.30761310526</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>84.5141187896681</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>76.49958085300396</v>
+        <v>76.49958085300398</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.39807921745988</v>
+        <v>67.39807921745989</v>
       </c>
       <c r="S43" t="n">
-        <v>145.5240227229872</v>
+        <v>38.44981979773289</v>
       </c>
       <c r="T43" t="n">
         <v>178.0979610571593</v>
       </c>
       <c r="U43" t="n">
-        <v>227.3205035842291</v>
+        <v>227.3205035842292</v>
       </c>
       <c r="V43" t="n">
         <v>208.0556514710951</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>225.2331977918452</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>176.4756187385578</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.459426300430648</v>
+        <v>86.61491795345151</v>
       </c>
       <c r="C44" t="n">
         <v>333.9798462258098</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>326.32281723921</v>
       </c>
       <c r="E44" t="n">
-        <v>343.293789378332</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>357.4615938290331</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>353.7672277005879</v>
       </c>
       <c r="H44" t="n">
         <v>265.5783196728853</v>
       </c>
       <c r="I44" t="n">
-        <v>81.6898454821709</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>330.2941787599848</v>
       </c>
       <c r="Y44" t="n">
-        <v>337.2619017323159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.80453515185359</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>113.2391664983817</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>98.81288171022146</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>98.73932376310057</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>100.4887751828678</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>111.30761310526</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>98.65986527183202</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>145.5240227229872</v>
+        <v>127.6519243937328</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>225.2331977918452</v>
       </c>
       <c r="X46" t="n">
-        <v>176.4756187385578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.6170403152341</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.2930482272545</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="C2" t="n">
-        <v>934.2930482272545</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="D2" t="n">
-        <v>934.2930482272545</v>
+        <v>1462.961130573385</v>
       </c>
       <c r="E2" t="n">
-        <v>531.7095233437991</v>
+        <v>1060.37760568993</v>
       </c>
       <c r="F2" t="n">
-        <v>518.8554889141809</v>
+        <v>643.4831672199074</v>
       </c>
       <c r="G2" t="n">
         <v>509.7331374425881</v>
@@ -4330,22 +4330,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>864.7645682749193</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M2" t="n">
-        <v>864.7645682749193</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.575851912381</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P2" t="n">
         <v>2180.802944936232</v>
@@ -4354,28 +4354,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T2" t="n">
-        <v>2199.134950018231</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U2" t="n">
-        <v>2199.134950018231</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V2" t="n">
-        <v>1857.028140721749</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W2" t="n">
-        <v>1857.028140721749</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="X2" t="n">
-        <v>1467.575535654806</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="Y2" t="n">
-        <v>1334.787793938651</v>
+        <v>1848.402259356717</v>
       </c>
     </row>
     <row r="3">
@@ -4415,13 +4415,13 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>623.6437572083089</v>
+        <v>554.6660347926879</v>
       </c>
       <c r="M3" t="n">
-        <v>623.6437572083089</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O3" t="n">
         <v>1725.662044805892</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403.4551703502499</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="C4" t="n">
-        <v>233.2500524162392</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="D4" t="n">
-        <v>233.2500524162392</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="E4" t="n">
-        <v>77.69124027544166</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="F4" t="n">
-        <v>77.69124027544166</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="G4" t="n">
-        <v>77.69124027544166</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H4" t="n">
         <v>77.69124027544166</v>
@@ -4515,25 +4515,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>824.8590032756731</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T4" t="n">
-        <v>589.1399514439072</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U4" t="n">
-        <v>589.1399514439072</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="V4" t="n">
-        <v>589.1399514439072</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="W4" t="n">
-        <v>589.1399514439072</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="X4" t="n">
-        <v>588.6631890415513</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="Y4" t="n">
-        <v>588.6631890415513</v>
+        <v>386.3238676264566</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1418.290805874553</v>
+        <v>2135.549357805132</v>
       </c>
       <c r="C5" t="n">
-        <v>1418.290805874553</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="D5" t="n">
-        <v>1418.290805874553</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E5" t="n">
-        <v>1015.707280991098</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F5" t="n">
-        <v>598.8128425210757</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G5" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H5" t="n">
         <v>185.6500870090788</v>
@@ -4567,52 +4567,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>943.648829263616</v>
       </c>
       <c r="M5" t="n">
-        <v>899.6156178475343</v>
+        <v>1489.649729308197</v>
       </c>
       <c r="N5" t="n">
-        <v>1427.426901484996</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="O5" t="n">
-        <v>1867.466502377325</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q5" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V5" t="n">
-        <v>2023.541695780699</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="W5" t="n">
-        <v>2023.541695780699</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="X5" t="n">
-        <v>1814.781514953952</v>
+        <v>2135.549357805132</v>
       </c>
       <c r="Y5" t="n">
-        <v>1418.290805874553</v>
+        <v>2135.549357805132</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L6" t="n">
-        <v>47.31297010154361</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M6" t="n">
-        <v>623.643757208308</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.14176221491</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805891</v>
+        <v>1746.012325817167</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.283413522289</v>
+        <v>2151.633694533565</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.648505077179</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4752,25 +4752,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W7" t="n">
-        <v>720.0916423671165</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X7" t="n">
-        <v>486.0113201500996</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>262.8992589667429</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.914163336598</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C8" t="n">
-        <v>1011.914163336598</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="D8" t="n">
-        <v>626.4730345532657</v>
+        <v>84.09551360532647</v>
       </c>
       <c r="E8" t="n">
-        <v>626.4730345532657</v>
+        <v>84.09551360532647</v>
       </c>
       <c r="F8" t="n">
-        <v>613.6190001236475</v>
+        <v>71.24147917570829</v>
       </c>
       <c r="G8" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H8" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I8" t="n">
         <v>62.11912770411553</v>
@@ -4828,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>2715.942227706244</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>2460.189498140842</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V8" t="n">
-        <v>2118.082688844361</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W8" t="n">
-        <v>1747.083653812648</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X8" t="n">
-        <v>1357.631048745705</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y8" t="n">
-        <v>1011.914163336598</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C9" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D9" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E9" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F9" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G9" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H9" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I9" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>900.7358324498676</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>1220.474978512094</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>1704.041064410407</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M9" t="n">
-        <v>2331.812714037089</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N9" t="n">
-        <v>2331.812714037089</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O9" t="n">
-        <v>2848.33299662807</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2871.591293650886</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R9" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S9" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T9" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U9" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V9" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W9" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X9" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y9" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>232.3242456381263</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="C10" t="n">
-        <v>62.11912770411553</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="D10" t="n">
-        <v>62.11912770411553</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="E10" t="n">
-        <v>62.11912770411553</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="F10" t="n">
-        <v>62.11912770411553</v>
+        <v>385.851732643176</v>
       </c>
       <c r="G10" t="n">
-        <v>62.11912770411553</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H10" t="n">
         <v>62.11912770411553</v>
@@ -4986,28 +4986,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S10" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T10" t="n">
-        <v>727.847098413902</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U10" t="n">
-        <v>640.6443255127842</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="V10" t="n">
-        <v>640.6443255127842</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="W10" t="n">
-        <v>640.6443255127842</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="X10" t="n">
-        <v>640.6443255127842</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.5322643294276</v>
+        <v>401.1300252290284</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1843.395526006234</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C11" t="n">
-        <v>1545.160705796353</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D11" t="n">
-        <v>1254.660258300209</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E11" t="n">
-        <v>947.0174147039415</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F11" t="n">
-        <v>625.0636575211076</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G11" t="n">
-        <v>306.8415832962992</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>77.69921414997819</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5077,16 +5077,16 @@
         <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2745.011542002408</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2745.011542002408</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="X11" t="n">
-        <v>2450.499618222653</v>
+        <v>2203.33349021336</v>
       </c>
       <c r="Y11" t="n">
-        <v>2148.949590430442</v>
+        <v>2176.765939604927</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>978.5393418843826</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.56928853388</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082778</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979809</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
         <v>160.810741531167</v>
@@ -5205,10 +5205,10 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
@@ -5226,7 +5226,7 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
@@ -5241,10 +5241,10 @@
         <v>850.6627251852101</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1320.171044252417</v>
+        <v>1827.815439560371</v>
       </c>
       <c r="C14" t="n">
-        <v>1021.936224042536</v>
+        <v>1529.58061935049</v>
       </c>
       <c r="D14" t="n">
-        <v>731.4357765463916</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E14" t="n">
-        <v>423.7929329501245</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F14" t="n">
-        <v>101.8391757672906</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G14" t="n">
-        <v>101.8391757672906</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H14" t="n">
-        <v>101.8391757672906</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5305,25 +5305,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2905.82359028062</v>
+        <v>2977.396464052381</v>
       </c>
       <c r="U14" t="n">
-        <v>2745.011542002408</v>
+        <v>2816.584415774169</v>
       </c>
       <c r="V14" t="n">
-        <v>2497.845413993115</v>
+        <v>2569.418287764875</v>
       </c>
       <c r="W14" t="n">
-        <v>2221.78706024859</v>
+        <v>2569.418287764875</v>
       </c>
       <c r="X14" t="n">
-        <v>1927.275136468836</v>
+        <v>2434.91953177679</v>
       </c>
       <c r="Y14" t="n">
-        <v>1625.725108676625</v>
+        <v>2133.36950398458</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1713.299043105699</v>
+        <v>1614.58555506108</v>
       </c>
       <c r="C17" t="n">
-        <v>1434.150288971596</v>
+        <v>1335.436800926978</v>
       </c>
       <c r="D17" t="n">
-        <v>1162.735907551231</v>
+        <v>1064.022419506613</v>
       </c>
       <c r="E17" t="n">
-        <v>874.1791300307427</v>
+        <v>898.4894995753107</v>
       </c>
       <c r="F17" t="n">
-        <v>571.3114389236875</v>
+        <v>595.6218084682555</v>
       </c>
       <c r="G17" t="n">
-        <v>272.1754307746578</v>
+        <v>296.4858003192259</v>
       </c>
       <c r="H17" t="n">
-        <v>62.11912770411553</v>
+        <v>86.42949724868359</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5542,25 +5542,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3065.828985823332</v>
+        <v>3053.469577509794</v>
       </c>
       <c r="T17" t="n">
-        <v>2956.355130745716</v>
+        <v>2943.995722432178</v>
       </c>
       <c r="U17" t="n">
-        <v>2814.629148543282</v>
+        <v>2943.995722432178</v>
       </c>
       <c r="V17" t="n">
-        <v>2814.629148543282</v>
+        <v>2715.915660498663</v>
       </c>
       <c r="W17" t="n">
-        <v>2557.656860874536</v>
+        <v>2458.943372829918</v>
       </c>
       <c r="X17" t="n">
-        <v>2282.23100317056</v>
+        <v>2183.517515125942</v>
       </c>
       <c r="Y17" t="n">
-        <v>1999.767041454128</v>
+        <v>1901.05355340951</v>
       </c>
     </row>
     <row r="18">
@@ -5600,19 +5600,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>359.481904424649</v>
+        <v>359.4819044246489</v>
       </c>
       <c r="C19" t="n">
-        <v>303.3035338536053</v>
+        <v>303.3035338536052</v>
       </c>
       <c r="D19" t="n">
-        <v>261.6971681190872</v>
+        <v>261.6971681190871</v>
       </c>
       <c r="E19" t="n">
-        <v>220.1651033412568</v>
+        <v>220.1651033412567</v>
       </c>
       <c r="F19" t="n">
         <v>176.8659159171968</v>
@@ -5667,7 +5667,7 @@
         <v>122.6386093796094</v>
       </c>
       <c r="H19" t="n">
-        <v>81.18680570407054</v>
+        <v>81.18680570407052</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5679,22 +5679,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>419.8394237783012</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
         <v>606.1310021165652</v>
       </c>
       <c r="N19" t="n">
-        <v>901.0782512382184</v>
+        <v>789.3206361477744</v>
       </c>
       <c r="O19" t="n">
-        <v>1175.54063337037</v>
+        <v>1063.783018279926</v>
       </c>
       <c r="P19" t="n">
         <v>1295.416799146949</v>
       </c>
       <c r="Q19" t="n">
-        <v>1372.826244272357</v>
+        <v>1372.826244272356</v>
       </c>
       <c r="R19" t="n">
         <v>1362.952002267901</v>
@@ -5706,19 +5706,19 @@
         <v>1152.470361344618</v>
       </c>
       <c r="U19" t="n">
-        <v>981.0583169494864</v>
+        <v>981.0583169494863</v>
       </c>
       <c r="V19" t="n">
-        <v>829.1057191332777</v>
+        <v>829.1057191332776</v>
       </c>
       <c r="W19" t="n">
-        <v>659.8020644274225</v>
+        <v>659.8020644274224</v>
       </c>
       <c r="X19" t="n">
-        <v>539.7484895733727</v>
+        <v>539.7484895733726</v>
       </c>
       <c r="Y19" t="n">
-        <v>430.6631757529832</v>
+        <v>430.6631757529831</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1472.859572858646</v>
+        <v>1737.609412650266</v>
       </c>
       <c r="C20" t="n">
-        <v>1193.710818724543</v>
+        <v>1458.460658516164</v>
       </c>
       <c r="D20" t="n">
-        <v>922.2964373041781</v>
+        <v>1187.046277095799</v>
       </c>
       <c r="E20" t="n">
-        <v>898.4894995753108</v>
+        <v>898.4894995753107</v>
       </c>
       <c r="F20" t="n">
-        <v>595.6218084682556</v>
+        <v>595.6218084682555</v>
       </c>
       <c r="G20" t="n">
         <v>296.4858003192259</v>
       </c>
       <c r="H20" t="n">
-        <v>86.4294972486836</v>
+        <v>86.42949724868359</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5782,22 +5782,22 @@
         <v>3053.469577509794</v>
       </c>
       <c r="T20" t="n">
-        <v>2943.995722432178</v>
+        <v>3053.469577509794</v>
       </c>
       <c r="U20" t="n">
-        <v>2802.269740229744</v>
+        <v>2911.74359530736</v>
       </c>
       <c r="V20" t="n">
-        <v>2574.189678296229</v>
+        <v>2838.93951808785</v>
       </c>
       <c r="W20" t="n">
-        <v>2317.217390627483</v>
+        <v>2581.967230419104</v>
       </c>
       <c r="X20" t="n">
-        <v>2041.791532923507</v>
+        <v>2306.541372715128</v>
       </c>
       <c r="Y20" t="n">
-        <v>1759.327571207075</v>
+        <v>2024.077410998696</v>
       </c>
     </row>
     <row r="21">
@@ -5834,13 +5834,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2092.612045358068</v>
+        <v>359.4819044246489</v>
       </c>
       <c r="C22" t="n">
-        <v>2036.433674787025</v>
+        <v>303.3035338536052</v>
       </c>
       <c r="D22" t="n">
-        <v>1994.827309052507</v>
+        <v>261.6971681190871</v>
       </c>
       <c r="E22" t="n">
-        <v>1953.295244274676</v>
+        <v>220.1651033412567</v>
       </c>
       <c r="F22" t="n">
-        <v>1909.996056850616</v>
+        <v>176.8659159171968</v>
       </c>
       <c r="G22" t="n">
-        <v>1855.768750313029</v>
+        <v>122.6386093796094</v>
       </c>
       <c r="H22" t="n">
-        <v>1814.31694663749</v>
+        <v>81.18680570407052</v>
       </c>
       <c r="I22" t="n">
-        <v>1795.249268637535</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>1795.249268637535</v>
+        <v>144.1030001971221</v>
       </c>
       <c r="K22" t="n">
-        <v>1877.084309747477</v>
+        <v>225.938041307064</v>
       </c>
       <c r="L22" t="n">
-        <v>2115.199198376633</v>
+        <v>390.0656811808637</v>
       </c>
       <c r="M22" t="n">
-        <v>2301.490776714897</v>
+        <v>576.3572595191278</v>
       </c>
       <c r="N22" t="n">
-        <v>2596.438025836551</v>
+        <v>871.304508640781</v>
       </c>
       <c r="O22" t="n">
-        <v>2870.900407968703</v>
+        <v>1034.009275682489</v>
       </c>
       <c r="P22" t="n">
-        <v>2990.776573745281</v>
+        <v>1257.646432811861</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>1372.826244272356</v>
       </c>
       <c r="R22" t="n">
-        <v>3096.08214320132</v>
+        <v>1362.952002267901</v>
       </c>
       <c r="S22" t="n">
-        <v>3007.292806746837</v>
+        <v>1274.162665813417</v>
       </c>
       <c r="T22" t="n">
-        <v>2885.600502278038</v>
+        <v>1152.470361344618</v>
       </c>
       <c r="U22" t="n">
-        <v>2714.188457882906</v>
+        <v>981.0583169494863</v>
       </c>
       <c r="V22" t="n">
-        <v>2562.235860066698</v>
+        <v>829.1057191332776</v>
       </c>
       <c r="W22" t="n">
-        <v>2392.932205360842</v>
+        <v>659.8020644274224</v>
       </c>
       <c r="X22" t="n">
-        <v>2272.878630506792</v>
+        <v>539.7484895733726</v>
       </c>
       <c r="Y22" t="n">
-        <v>2163.793316686403</v>
+        <v>430.6631757529831</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1737.609412650267</v>
+        <v>1713.299043105699</v>
       </c>
       <c r="C23" t="n">
-        <v>1458.460658516165</v>
+        <v>1434.150288971596</v>
       </c>
       <c r="D23" t="n">
-        <v>1187.046277095799</v>
+        <v>1162.735907551231</v>
       </c>
       <c r="E23" t="n">
-        <v>898.4894995753108</v>
+        <v>874.1791300307427</v>
       </c>
       <c r="F23" t="n">
-        <v>595.6218084682556</v>
+        <v>571.3114389236875</v>
       </c>
       <c r="G23" t="n">
-        <v>296.4858003192259</v>
+        <v>272.1754307746578</v>
       </c>
       <c r="H23" t="n">
-        <v>86.4294972486836</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6034,7 +6034,7 @@
         <v>2041.791532923507</v>
       </c>
       <c r="Y23" t="n">
-        <v>1759.327571207075</v>
+        <v>1999.767041454128</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.973980501895</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O24" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.481904424649</v>
+        <v>359.4819044246489</v>
       </c>
       <c r="C25" t="n">
-        <v>303.3035338536053</v>
+        <v>303.3035338536052</v>
       </c>
       <c r="D25" t="n">
-        <v>261.6971681190872</v>
+        <v>261.6971681190871</v>
       </c>
       <c r="E25" t="n">
-        <v>220.1651033412568</v>
+        <v>220.1651033412567</v>
       </c>
       <c r="F25" t="n">
         <v>176.8659159171968</v>
@@ -6141,7 +6141,7 @@
         <v>122.6386093796094</v>
       </c>
       <c r="H25" t="n">
-        <v>81.18680570407054</v>
+        <v>81.18680570407052</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6153,22 +6153,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>382.0690574432139</v>
+        <v>419.8394237783012</v>
       </c>
       <c r="M25" t="n">
-        <v>568.3606357814779</v>
+        <v>717.8886172070094</v>
       </c>
       <c r="N25" t="n">
-        <v>751.550269812687</v>
+        <v>901.0782512382186</v>
       </c>
       <c r="O25" t="n">
-        <v>1026.012651944839</v>
+        <v>1063.783018279927</v>
       </c>
       <c r="P25" t="n">
-        <v>1257.646432811862</v>
+        <v>1257.646432811861</v>
       </c>
       <c r="Q25" t="n">
-        <v>1372.826244272357</v>
+        <v>1372.826244272356</v>
       </c>
       <c r="R25" t="n">
         <v>1362.952002267901</v>
@@ -6180,19 +6180,19 @@
         <v>1152.470361344618</v>
       </c>
       <c r="U25" t="n">
-        <v>981.0583169494864</v>
+        <v>981.0583169494863</v>
       </c>
       <c r="V25" t="n">
-        <v>829.1057191332777</v>
+        <v>829.1057191332776</v>
       </c>
       <c r="W25" t="n">
-        <v>659.8020644274225</v>
+        <v>659.8020644274224</v>
       </c>
       <c r="X25" t="n">
-        <v>539.7484895733727</v>
+        <v>539.7484895733726</v>
       </c>
       <c r="Y25" t="n">
-        <v>430.6631757529832</v>
+        <v>430.6631757529831</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1391.743918024177</v>
+        <v>1552.989800955909</v>
       </c>
       <c r="C26" t="n">
-        <v>1093.509097814296</v>
+        <v>1254.754980746028</v>
       </c>
       <c r="D26" t="n">
-        <v>1009.937802708025</v>
+        <v>964.2545332498844</v>
       </c>
       <c r="E26" t="n">
-        <v>702.2949591117579</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F26" t="n">
-        <v>380.341201928924</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G26" t="n">
-        <v>62.11912770411553</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6253,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T26" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U26" t="n">
-        <v>2816.584415774169</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V26" t="n">
-        <v>2569.418287764875</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W26" t="n">
-        <v>2293.359934020351</v>
+        <v>2454.605816952083</v>
       </c>
       <c r="X26" t="n">
-        <v>1998.848010240597</v>
+        <v>2160.093893172328</v>
       </c>
       <c r="Y26" t="n">
-        <v>1697.297982448386</v>
+        <v>1858.543865380118</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>494.9732559860694</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="L27" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M27" t="n">
-        <v>1606.310991511064</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N27" t="n">
-        <v>1606.310991511064</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O27" t="n">
-        <v>2122.831274102045</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P27" t="n">
         <v>2146.089571124861</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>493.0843669551001</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C28" t="n">
-        <v>417.8199303082777</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D28" t="n">
-        <v>357.1274984979808</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E28" t="n">
-        <v>296.5093676443716</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F28" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G28" t="n">
         <v>160.810741531167</v>
@@ -6390,10 +6390,10 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L28" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M28" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N28" t="n">
         <v>1113.046087107759</v>
@@ -6411,7 +6411,7 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S28" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T28" t="n">
         <v>1400.589220329742</v>
@@ -6423,13 +6423,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W28" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X28" t="n">
-        <v>711.5230842553814</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1799.722094311683</v>
+        <v>1529.58061935049</v>
       </c>
       <c r="C29" t="n">
-        <v>1501.487274101802</v>
+        <v>1529.58061935049</v>
       </c>
       <c r="D29" t="n">
-        <v>1210.986826605658</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E29" t="n">
-        <v>903.343983009391</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F29" t="n">
-        <v>581.3902258265571</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G29" t="n">
         <v>291.2614968504365</v>
@@ -6490,25 +6490,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T29" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U29" t="n">
-        <v>2977.396464052381</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V29" t="n">
-        <v>2977.396464052381</v>
+        <v>2707.254989091188</v>
       </c>
       <c r="W29" t="n">
-        <v>2701.338110307857</v>
+        <v>2431.196635346664</v>
       </c>
       <c r="X29" t="n">
-        <v>2406.826186528102</v>
+        <v>2136.684711566909</v>
       </c>
       <c r="Y29" t="n">
-        <v>2105.276158735892</v>
+        <v>1835.134683774699</v>
       </c>
     </row>
     <row r="30">
@@ -6548,19 +6548,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M30" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N30" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6788,10 +6788,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O33" t="n">
         <v>1740.468202408463</v>
@@ -6861,25 +6861,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P34" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q34" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R34" t="n">
         <v>1098.20216247628</v>
@@ -7016,22 +7016,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7098,19 +7098,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C39" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D39" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>787.6208502301403</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>1271.186936128453</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1293.671671132949</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N39" t="n">
-        <v>1949.449642343508</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O39" t="n">
-        <v>2465.969924934489</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
-        <v>2871.591293650886</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R39" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S39" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T39" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U39" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V39" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W39" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X39" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y39" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2243.686201918055</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>2205.157820666453</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>2181.201444251376</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>2157.319368792987</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>2131.670170688369</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>2095.092853470223</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>2071.291039114125</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>2069.873350433611</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>2151.708391543553</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>2315.836031417353</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>2507.707252363801</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N40" t="n">
-        <v>2819.953256017438</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
-        <v>2982.658023059147</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>3102.534188835725</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>2930.774722921377</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>2777.012667845686</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>2297.217483926948</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1317.844607405253</v>
+        <v>1174.901046692485</v>
       </c>
       <c r="C41" t="n">
-        <v>980.4912273791826</v>
+        <v>837.5476666664142</v>
       </c>
       <c r="D41" t="n">
-        <v>650.8722200668493</v>
+        <v>766.22116515757</v>
       </c>
       <c r="E41" t="n">
-        <v>650.8722200668493</v>
+        <v>419.4597617451134</v>
       </c>
       <c r="F41" t="n">
-        <v>330.3800566666259</v>
+        <v>419.4597617451134</v>
       </c>
       <c r="G41" t="n">
-        <v>330.3800566666259</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
         <v>62.11912770411553</v>
@@ -7438,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>2995.264951617826</v>
       </c>
       <c r="T41" t="n">
-        <v>2938.277904236192</v>
+        <v>2995.264951617826</v>
       </c>
       <c r="U41" t="n">
-        <v>2938.277904236192</v>
+        <v>2795.334343523423</v>
       </c>
       <c r="V41" t="n">
-        <v>2651.993216410709</v>
+        <v>2509.049655697941</v>
       </c>
       <c r="W41" t="n">
-        <v>2336.816302849995</v>
+        <v>2193.872742137227</v>
       </c>
       <c r="X41" t="n">
-        <v>2003.185819254051</v>
+        <v>1860.242258541283</v>
       </c>
       <c r="Y41" t="n">
-        <v>1662.517231645651</v>
+        <v>1519.573670932883</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C42" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D42" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>900.7358324498676</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>1220.474978512094</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>1220.474978512094</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1293.671671132949</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1949.449642343508</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2465.969924934489</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2871.591293650886</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R42" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S42" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T42" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U42" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V42" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W42" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X42" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y42" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2271.212730606857</v>
+        <v>239.1281222658373</v>
       </c>
       <c r="C43" t="n">
-        <v>2271.212730606857</v>
+        <v>239.1281222658373</v>
       </c>
       <c r="D43" t="n">
-        <v>2171.401738980371</v>
+        <v>239.1281222658373</v>
       </c>
       <c r="E43" t="n">
-        <v>2071.665048310572</v>
+        <v>139.3914315960387</v>
       </c>
       <c r="F43" t="n">
-        <v>2071.665048310572</v>
+        <v>139.3914315960387</v>
       </c>
       <c r="G43" t="n">
-        <v>1959.233115881017</v>
+        <v>139.3914315960387</v>
       </c>
       <c r="H43" t="n">
-        <v>1873.865319123776</v>
+        <v>139.3914315960387</v>
       </c>
       <c r="I43" t="n">
-        <v>1796.593015231853</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>1821.530533888142</v>
+        <v>87.05664636040406</v>
       </c>
       <c r="K43" t="n">
-        <v>1958.07683625181</v>
+        <v>223.602948724072</v>
       </c>
       <c r="L43" t="n">
-        <v>2176.915737379335</v>
+        <v>442.4418498515977</v>
       </c>
       <c r="M43" t="n">
-        <v>2417.918576971325</v>
+        <v>683.4446894435878</v>
       </c>
       <c r="N43" t="n">
-        <v>2655.819472256261</v>
+        <v>921.345584728523</v>
       </c>
       <c r="O43" t="n">
-        <v>2873.235500551695</v>
+        <v>1138.761613023957</v>
       </c>
       <c r="P43" t="n">
-        <v>3047.822927581999</v>
+        <v>1313.349040054262</v>
       </c>
       <c r="Q43" t="n">
-        <v>3105.956385205776</v>
+        <v>1371.482497678039</v>
       </c>
       <c r="R43" t="n">
-        <v>3037.877517309352</v>
+        <v>1303.403629781615</v>
       </c>
       <c r="S43" t="n">
-        <v>2890.883554962901</v>
+        <v>1264.565427965723</v>
       </c>
       <c r="T43" t="n">
-        <v>2710.986624602134</v>
+        <v>1084.668497604956</v>
       </c>
       <c r="U43" t="n">
-        <v>2481.369954315034</v>
+        <v>855.0518273178557</v>
       </c>
       <c r="V43" t="n">
-        <v>2271.212730606857</v>
+        <v>644.8946036096788</v>
       </c>
       <c r="W43" t="n">
-        <v>2271.212730606857</v>
+        <v>417.3863230118553</v>
       </c>
       <c r="X43" t="n">
-        <v>2271.212730606857</v>
+        <v>239.1281222658373</v>
       </c>
       <c r="Y43" t="n">
-        <v>2271.212730606857</v>
+        <v>239.1281222658373</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1458.082152540713</v>
+        <v>1715.765395045051</v>
       </c>
       <c r="C44" t="n">
-        <v>1120.728772514642</v>
+        <v>1378.412015018981</v>
       </c>
       <c r="D44" t="n">
-        <v>1120.728772514642</v>
+        <v>1048.793007706647</v>
       </c>
       <c r="E44" t="n">
-        <v>773.9673691021856</v>
+        <v>1048.793007706647</v>
       </c>
       <c r="F44" t="n">
-        <v>412.8950521031622</v>
+        <v>687.7206907076238</v>
       </c>
       <c r="G44" t="n">
-        <v>412.8950521031622</v>
+        <v>330.3800566666259</v>
       </c>
       <c r="H44" t="n">
-        <v>144.6341231406518</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7693,7 +7693,7 @@
         <v>1803.255211159649</v>
       </c>
       <c r="Y44" t="n">
-        <v>1462.586623551249</v>
+        <v>1803.255211159649</v>
       </c>
     </row>
     <row r="45">
@@ -7736,16 +7736,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1458.313011372373</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>2150.837595685923</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2150.837595685923</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>176.5021241671274</v>
+        <v>575.2589853134912</v>
       </c>
       <c r="C46" t="n">
-        <v>62.11912770411553</v>
+        <v>575.2589853134912</v>
       </c>
       <c r="D46" t="n">
-        <v>62.11912770411553</v>
+        <v>475.4479936870048</v>
       </c>
       <c r="E46" t="n">
-        <v>62.11912770411553</v>
+        <v>375.7113030172063</v>
       </c>
       <c r="F46" t="n">
-        <v>62.11912770411553</v>
+        <v>274.2074897011781</v>
       </c>
       <c r="G46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.7755572716226</v>
       </c>
       <c r="H46" t="n">
         <v>62.11912770411553</v>
@@ -7806,7 +7806,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>87.05664636040407</v>
+        <v>87.05664636040409</v>
       </c>
       <c r="K46" t="n">
         <v>223.602948724072</v>
@@ -7833,25 +7833,25 @@
         <v>1371.482497678039</v>
       </c>
       <c r="S46" t="n">
-        <v>1224.488535331587</v>
+        <v>1242.541159906592</v>
       </c>
       <c r="T46" t="n">
-        <v>1224.488535331587</v>
+        <v>1242.541159906592</v>
       </c>
       <c r="U46" t="n">
-        <v>994.8718650444869</v>
+        <v>1012.924489619492</v>
       </c>
       <c r="V46" t="n">
-        <v>784.71464133631</v>
+        <v>802.7672659113147</v>
       </c>
       <c r="W46" t="n">
-        <v>557.2063607384865</v>
+        <v>575.2589853134912</v>
       </c>
       <c r="X46" t="n">
-        <v>378.9481599924686</v>
+        <v>575.2589853134912</v>
       </c>
       <c r="Y46" t="n">
-        <v>211.6582202801108</v>
+        <v>575.2589853134912</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>470.2375325962349</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>466.2265087279361</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
@@ -7996,7 +7996,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8063,16 +8063,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>234.9862648617782</v>
+        <v>165.3117977752924</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>549.9186043019891</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>466.8029043711341</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,16 +8294,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>674.5394322581649</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>676.7842391234617</v>
@@ -8315,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>307.1647294625955</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8473,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8537,19 +8537,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>709.3350389104421</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>110.5765941352903</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8774,22 +8774,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>742.9781195708306</v>
+        <v>424.3297954396435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9008,25 +9008,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N15" t="n">
-        <v>345.5977578821532</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9248,10 +9248,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>324.3235533562099</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9260,10 +9260,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9482,16 +9482,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>140.5980025943154</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9728,13 +9728,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>457.616862805975</v>
       </c>
       <c r="O24" t="n">
-        <v>326.5064297756122</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9956,22 +9956,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>262.1075997502998</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>110.5765941352903</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10196,10 +10196,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10208,10 +10208,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10436,13 +10436,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10664,13 +10664,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
@@ -10682,7 +10682,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>173.3576105420024</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10904,22 +10904,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>115.098975589206</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>744.8605591506561</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11144,13 +11144,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>166.3231752016902</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11384,19 +11384,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>577.006990218999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>322.9245844628117</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>27.53818568273932</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>273.2977702070789</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>272.2326524119397</v>
       </c>
     </row>
     <row r="12">
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.639623681600028</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>158.413036113753</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>121.7936190132946</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>24.06726584912239</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>12.23581423040265</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>140.3087223804099</v>
       </c>
       <c r="V17" t="n">
-        <v>225.7992613141794</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>262.1023413937049</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>108.3791165268401</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>153.7232248668645</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.1023413937051</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>24.06726584912238</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>238.0350755445821</v>
       </c>
     </row>
     <row r="24">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>204.859860865974</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H26" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>230.4905691364576</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>27.81241179620105</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292003</v>
+        <v>207.3154793470931</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>255.7095807454543</v>
       </c>
       <c r="E41" t="n">
-        <v>343.293789378332</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>40.17435206281192</v>
+        <v>357.4615938290331</v>
       </c>
       <c r="G41" t="n">
-        <v>353.7672277005879</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>265.5783196728853</v>
       </c>
       <c r="I41" t="n">
-        <v>81.6898454821709</v>
+        <v>81.68984548217091</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.584519252071</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>166.0016961598886</v>
       </c>
       <c r="U41" t="n">
-        <v>197.9313020134584</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>128.0920382480994</v>
       </c>
       <c r="C43" t="n">
-        <v>113.2391664983817</v>
+        <v>113.2391664983818</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>98.81288171022149</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>100.4887751828679</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>111.30761310526</v>
       </c>
       <c r="H43" t="n">
-        <v>14.14574648216393</v>
+        <v>98.65986527183205</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>107.0742029252543</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>225.2331977918452</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>176.4756187385578</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.6170403152341</v>
+        <v>165.6170403152342</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>336.7664716975633</v>
+        <v>254.6109800445425</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>326.32281723921</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>343.293789378332</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>353.7672277005879</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>81.68984548217088</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>337.2619017323159</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.28750309624577</v>
+        <v>128.0920382480993</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>113.2391664983817</v>
       </c>
       <c r="D46" t="n">
-        <v>98.81288171022148</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>98.73932376310059</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>100.4887751828679</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>111.30761310526</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>98.65986527183203</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>76.49958085300396</v>
+        <v>76.49958085300395</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.39807921745988</v>
+        <v>67.39807921745987</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>17.87209832925441</v>
       </c>
       <c r="T46" t="n">
         <v>178.0979610571593</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>176.4756187385578</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>165.6170403152341</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>559271.2048546862</v>
+        <v>559271.204854686</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>559271.204854686</v>
+        <v>559271.2048546862</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>559271.204854686</v>
+        <v>559271.2048546862</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>502841.6315327265</v>
+        <v>502841.6315327264</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>667229.0589454201</v>
+        <v>667229.0589454197</v>
       </c>
       <c r="C2" t="n">
         <v>667229.0589454197</v>
       </c>
       <c r="D2" t="n">
-        <v>667229.0589454197</v>
+        <v>667229.0589454196</v>
       </c>
       <c r="E2" t="n">
-        <v>627061.6539279828</v>
+        <v>627061.6539279821</v>
       </c>
       <c r="F2" t="n">
+        <v>627061.653927982</v>
+      </c>
+      <c r="G2" t="n">
+        <v>647930.4635486018</v>
+      </c>
+      <c r="H2" t="n">
+        <v>647930.463548602</v>
+      </c>
+      <c r="I2" t="n">
+        <v>647930.4635486021</v>
+      </c>
+      <c r="J2" t="n">
         <v>627061.6539279823</v>
       </c>
-      <c r="G2" t="n">
-        <v>647930.463548602</v>
-      </c>
-      <c r="H2" t="n">
-        <v>647930.4635486017</v>
-      </c>
-      <c r="I2" t="n">
-        <v>647930.4635486016</v>
-      </c>
-      <c r="J2" t="n">
-        <v>627061.6539279828</v>
-      </c>
       <c r="K2" t="n">
-        <v>627061.6539279821</v>
+        <v>627061.653927982</v>
       </c>
       <c r="L2" t="n">
-        <v>667229.0589454201</v>
+        <v>667229.05894542</v>
       </c>
       <c r="M2" t="n">
-        <v>667229.05894542</v>
+        <v>667229.0589454195</v>
       </c>
       <c r="N2" t="n">
         <v>667229.0589454196</v>
       </c>
       <c r="O2" t="n">
-        <v>563792.1323245715</v>
+        <v>563792.1323245717</v>
       </c>
       <c r="P2" t="n">
-        <v>563792.1323245717</v>
+        <v>563792.1323245718</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15116.16433201678</v>
+        <v>15116.16433201679</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>91052.43562743775</v>
+        <v>91052.43562743778</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>154346.0890704044</v>
       </c>
       <c r="C4" t="n">
-        <v>154346.0890704043</v>
+        <v>154346.0890704044</v>
       </c>
       <c r="D4" t="n">
         <v>121801.4438820496</v>
@@ -26438,19 +26438,19 @@
         <v>110020.9054041537</v>
       </c>
       <c r="I4" t="n">
-        <v>110020.9054041536</v>
+        <v>110020.9054041537</v>
       </c>
       <c r="J4" t="n">
-        <v>97239.09137183767</v>
+        <v>97239.09137183768</v>
       </c>
       <c r="K4" t="n">
-        <v>97239.09137183765</v>
+        <v>97239.09137183768</v>
       </c>
       <c r="L4" t="n">
         <v>121843.4120153196</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
         <v>121843.4120153196</v>
@@ -26459,7 +26459,7 @@
         <v>58103.30896352392</v>
       </c>
       <c r="P4" t="n">
-        <v>58103.30896352393</v>
+        <v>58103.30896352396</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>245101.7066060976</v>
+        <v>245101.7066060973</v>
       </c>
       <c r="C6" t="n">
         <v>443297.5125978423</v>
       </c>
       <c r="D6" t="n">
-        <v>407099.0188071559</v>
+        <v>407099.0188071558</v>
       </c>
       <c r="E6" t="n">
-        <v>399517.2534677829</v>
+        <v>399408.692913681</v>
       </c>
       <c r="F6" t="n">
-        <v>474710.2730472356</v>
+        <v>474601.712493134</v>
       </c>
       <c r="G6" t="n">
-        <v>466092.6032794871</v>
+        <v>466040.4449135495</v>
       </c>
       <c r="H6" t="n">
-        <v>481208.7676115036</v>
+        <v>481156.6092455665</v>
       </c>
       <c r="I6" t="n">
-        <v>481208.7676115035</v>
+        <v>481156.6092455666</v>
       </c>
       <c r="J6" t="n">
-        <v>259893.9834341962</v>
+        <v>259785.4228800946</v>
       </c>
       <c r="K6" t="n">
-        <v>474710.2730472353</v>
+        <v>474601.712493134</v>
       </c>
       <c r="L6" t="n">
-        <v>396163.441987143</v>
+        <v>396163.4419871429</v>
       </c>
       <c r="M6" t="n">
-        <v>487215.8776145807</v>
+        <v>487215.8776145802</v>
       </c>
       <c r="N6" t="n">
         <v>487215.8776145803</v>
       </c>
       <c r="O6" t="n">
-        <v>453832.3054752738</v>
+        <v>453552.7462141366</v>
       </c>
       <c r="P6" t="n">
-        <v>453832.305475274</v>
+        <v>453552.7462141367</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>112.8864798893374</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431644</v>
@@ -26724,10 +26724,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="P2" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
     </row>
     <row r="3">
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>18.89520541502097</v>
+        <v>18.89520541502099</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>75.09606905929546</v>
+        <v>75.09606905929547</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628894</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18.89520541502097</v>
+        <v>18.89520541502099</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>75.09606905929546</v>
+        <v>75.09606905929547</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>276.6185984773308</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>261.0659376896118</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>14.94897781216508</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.2675242165144</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27618,7 +27618,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27675,16 +27675,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>178.8854999977946</v>
+        <v>360.2213273026395</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27797,7 +27797,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>134.7564242791754</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>54.11543127491436</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>336.6588690088442</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>50.26608543358907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28022,13 +28022,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>140.6271657791629</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>196.2536586684114</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28079,7 +28079,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28751,22 +28751,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>112.8864798893374</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
       <c r="N19" t="n">
-        <v>112.8864798893374</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>112.8864798893374</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.73459470238058</v>
+        <v>74.73459470238035</v>
       </c>
       <c r="R19" t="n">
         <v>112.8864798893374</v>
@@ -28982,13 +28982,13 @@
         <v>112.8864798893374</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>74.73459470238069</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28997,10 +28997,10 @@
         <v>112.8864798893374</v>
       </c>
       <c r="O22" t="n">
-        <v>112.8864798893374</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>104.8090821745391</v>
       </c>
       <c r="Q22" t="n">
         <v>112.8864798893374</v>
@@ -29225,19 +29225,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>74.73459470238049</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>112.8864798893374</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>112.8864798893374</v>
+        <v>74.73459470237995</v>
       </c>
       <c r="Q25" t="n">
         <v>112.8864798893374</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29933,28 +29933,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
         <v>130.3599693155844</v>
@@ -30170,22 +30170,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30404,7 +30404,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30413,10 +30413,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5.636002634529177</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="N40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="C41" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="D41" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="E41" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="F41" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="G41" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="H41" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="I41" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="T41" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="U41" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="V41" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="W41" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="X41" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="C43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="D43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="E43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="F43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="G43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="H43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="I43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="J43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="K43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="L43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="M43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="N43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="O43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="P43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="R43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="S43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="T43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="U43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="V43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="W43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="X43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628891</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="C44" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="D44" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="E44" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="F44" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="G44" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="H44" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="I44" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="T44" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="U44" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="V44" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="W44" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="X44" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="Y44" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="C46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="D46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="E46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="F46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="G46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="H46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="I46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="J46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="K46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="L46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="M46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="N46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="O46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="P46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="R46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="S46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="T46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="U46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="V46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="W46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="X46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.26390025628892</v>
+        <v>55.26390025628893</v>
       </c>
     </row>
   </sheetData>
@@ -34698,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>316.9893628657432</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>316.5014571302088</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
@@ -34716,7 +34716,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34783,16 +34783,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>144.92591800486</v>
+        <v>75.25145091837418</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>396.6704345714974</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>316.5014571302089</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>582.152310208853</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>591.4121262692951</v>
@@ -35035,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>216.1765763066815</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>623.9629260562755</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>23.49322931597565</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35494,22 +35494,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>657.606006716664</v>
+        <v>338.9576825854768</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N15" t="n">
-        <v>260.2256450279866</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
         <v>444.4844453457863</v>
@@ -35968,10 +35968,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>231.936431306898</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -35980,10 +35980,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,22 +36047,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>278.6719747113574</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>301.0597913421294</v>
       </c>
       <c r="N19" t="n">
-        <v>297.9265142642962</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>277.2347294264163</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>233.9735160272956</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.19135871253306</v>
+        <v>78.19135871253283</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>82.81199241717837</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>240.5200895244007</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36293,10 +36293,10 @@
         <v>297.9265142642962</v>
       </c>
       <c r="O22" t="n">
-        <v>277.2347294264163</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>225.8961183124973</v>
       </c>
       <c r="Q22" t="n">
         <v>116.3432438994899</v>
@@ -36369,7 +36369,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
         <v>444.4844453457863</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36448,13 +36448,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="O24" t="n">
-        <v>233.8188708867233</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36521,19 +36521,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>240.5200895244005</v>
+        <v>278.6719747113574</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>301.0597913421294</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>277.2347294264163</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>233.9735160272956</v>
+        <v>195.8216308403381</v>
       </c>
       <c r="Q25" t="n">
         <v>116.3432438994899</v>
@@ -36676,22 +36676,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>23.49322931597565</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36773,7 +36773,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36916,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -36928,10 +36928,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37229,19 +37229,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
@@ -37250,7 +37250,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
@@ -37402,7 +37402,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>88.29766032133907</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>22.71185353989412</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>659.4884462964894</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37709,10 +37709,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.8093140873211</v>
+        <v>223.8838015594801</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37797,7 +37797,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37864,13 +37864,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>73.93605315237828</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.18941278412985</v>
+        <v>25.18941278412984</v>
       </c>
       <c r="K43" t="n">
         <v>137.9255579430989</v>
@@ -37958,7 +37958,7 @@
         <v>176.3509363942471</v>
       </c>
       <c r="Q43" t="n">
-        <v>58.7206642664414</v>
+        <v>58.72066426644139</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38104,19 +38104,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>484.6198681696871</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>231.9364313068977</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.18941278412985</v>
+        <v>25.18941278412986</v>
       </c>
       <c r="K46" t="n">
         <v>137.9255579430989</v>
@@ -38195,7 +38195,7 @@
         <v>176.3509363942471</v>
       </c>
       <c r="Q46" t="n">
-        <v>58.7206642664414</v>
+        <v>58.72066426644142</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
